--- a/data/trans_dic/P19-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>11,06; 26,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>17,26; 33,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>17,07; 32,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>16,65; 35,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>26,3; 42,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>17,98; 35,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>24,27; 40,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>24,33; 39,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>21,26; 32,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>20,7; 32,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>23,01; 35,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>23,64; 35,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,86%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>20,46; 27,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>18,22; 25,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>25,67; 33,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>17,45; 25,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>26,68; 33,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>26,48; 33,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>31,25; 38,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>25,28; 31,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>24,43; 29,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>23,49; 28,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>29,49; 34,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>22,41; 27,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,2%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>22,12; 27,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>21,04; 26,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>25,1; 30,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>19,19; 26,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>28,44; 34,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>27,33; 33,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>32,61; 39,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>24,82; 29,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>26,13; 30,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>24,87; 28,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>30,03; 34,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>22,59; 27,21</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,92%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>24,03; 31,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>23,37; 30,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>27,82; 34,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>27,59; 35,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>29,14; 35,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>25,72; 32,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>31,99; 38,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>18,99; 36,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>27,7; 32,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>25,57; 30,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>30,71; 35,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>23,6; 34,31</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,73%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>21,81; 27,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>23,08; 29,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>25,87; 31,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>25,68; 31,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>27,63; 33,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>29,22; 34,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>30,29; 36,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>31,13; 36,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>25,82; 29,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>26,99; 31,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>28,93; 33,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>29,7; 33,87</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,46%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,42; 26,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,19; 26,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>27,66; 30,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,32; 27,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,83; 33,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>28,65; 31,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,94; 36,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,22; 32,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>27,15; 29,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,45; 28,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,69; 33,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>26,77; 29,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>26,12%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 26,33</t>
+          <t>19,72; 25,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 33,79</t>
+          <t>18,94; 25,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 32,58</t>
+          <t>25,14; 31,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,65; 35,61</t>
+          <t>18,73; 26,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,3; 42,53</t>
+          <t>27,33; 34,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,98; 35,77</t>
+          <t>25,98; 33,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,27; 40,75</t>
+          <t>30,91; 37,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,33; 39,27</t>
+          <t>26,6; 32,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,26; 32,57</t>
+          <t>24,59; 29,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,7; 32,56</t>
+          <t>23,39; 28,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,01; 35,23</t>
+          <t>28,97; 33,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,64; 35,17</t>
+          <t>23,72; 28,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>26,95%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>25,84%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 27,5</t>
+          <t>22,12; 27,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 25,29</t>
+          <t>21,04; 26,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,67; 33,62</t>
+          <t>25,1; 30,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,45; 25,27</t>
+          <t>10,81; 25,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,68; 33,97</t>
+          <t>28,44; 34,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,48; 33,79</t>
+          <t>27,33; 33,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,25; 38,65</t>
+          <t>32,61; 39,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 31,92</t>
+          <t>25,23; 30,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,38</t>
+          <t>26,13; 30,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,49; 28,77</t>
+          <t>24,87; 28,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,49; 34,9</t>
+          <t>30,03; 34,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,41; 27,42</t>
+          <t>15,03; 26,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>30,28%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,12; 27,79</t>
+          <t>24,03; 31,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,23</t>
+          <t>23,37; 30,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,1; 30,76</t>
+          <t>27,82; 34,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 26,38</t>
+          <t>28,02; 36,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,44; 34,61</t>
+          <t>29,14; 35,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,33; 33,15</t>
+          <t>25,72; 32,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,61; 39,07</t>
+          <t>31,99; 38,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,82; 29,74</t>
+          <t>14,3; 39,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 30,18</t>
+          <t>27,7; 32,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 28,89</t>
+          <t>25,57; 30,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,03; 34,23</t>
+          <t>30,71; 35,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 27,21</t>
+          <t>19,69; 35,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>31,09%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,03; 31,15</t>
+          <t>21,81; 27,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,37; 30,11</t>
+          <t>23,08; 29,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 34,62</t>
+          <t>25,87; 31,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,59; 35,5</t>
+          <t>25,93; 32,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,14; 35,92</t>
+          <t>27,63; 33,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 32,44</t>
+          <t>29,22; 34,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,99; 38,49</t>
+          <t>30,29; 36,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 36,34</t>
+          <t>25,16; 36,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,7; 32,57</t>
+          <t>25,82; 29,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 30,45</t>
+          <t>26,99; 31,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,71; 35,51</t>
+          <t>28,93; 33,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 34,31</t>
+          <t>27,39; 33,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>27,55%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,81; 27,63</t>
+          <t>23,42; 26,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,08; 29,07</t>
+          <t>23,19; 26,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,87; 31,82</t>
+          <t>27,66; 30,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,68; 31,94</t>
+          <t>19,36; 27,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,63; 33,38</t>
+          <t>29,83; 33,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,22; 34,81</t>
+          <t>28,65; 31,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,29; 36,08</t>
+          <t>32,94; 36,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,13; 36,82</t>
+          <t>23,82; 32,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,82; 29,84</t>
+          <t>27,15; 29,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,99; 31,34</t>
+          <t>26,45; 28,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,93; 33,19</t>
+          <t>30,69; 33,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,7; 33,87</t>
+          <t>23,82; 29,77</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>24,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>24,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>29,06%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>26,24%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>31,35%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>34,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>30,44%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>28,16%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>27,55%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>31,86%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>28,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>23,42; 26,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>23,19; 26,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>27,66; 30,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>24,32; 27,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>29,83; 33,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>28,65; 31,85</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>32,94; 36,2</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>27,22; 32,14</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>27,15; 29,25</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 28,67</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>30,69; 33,0</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>26,77; 29,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,72; 25,72</t>
+          <t>19,5; 26,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 25,56</t>
+          <t>19,16; 25,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,82</t>
+          <t>25,11; 32,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,73; 26,49</t>
+          <t>19,2; 27,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,33; 34,52</t>
+          <t>27,94; 34,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,98; 33,22</t>
+          <t>26,07; 33,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,91; 37,97</t>
+          <t>30,77; 37,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,6; 32,41</t>
+          <t>26,6; 32,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,59; 29,2</t>
+          <t>24,58; 29,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,39; 28,3</t>
+          <t>23,67; 28,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,97; 33,98</t>
+          <t>29,04; 33,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,72; 28,53</t>
+          <t>23,69; 28,56</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 27,79</t>
+          <t>22,28; 27,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,23</t>
+          <t>20,88; 26,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 30,76</t>
+          <t>25,33; 31,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 25,19</t>
+          <t>10,58; 25,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 34,61</t>
+          <t>28,47; 34,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,33; 33,15</t>
+          <t>27,37; 33,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,61; 39,07</t>
+          <t>32,5; 38,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,23; 30,19</t>
+          <t>25,21; 30,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,13; 30,18</t>
+          <t>26,03; 30,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,87; 28,89</t>
+          <t>24,9; 29,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,03; 34,23</t>
+          <t>29,91; 34,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 26,43</t>
+          <t>15,25; 26,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,03; 31,15</t>
+          <t>24,2; 30,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,37; 30,11</t>
+          <t>23,37; 30,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,82; 34,62</t>
+          <t>27,81; 35,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,02; 36,11</t>
+          <t>28,03; 36,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,14; 35,92</t>
+          <t>28,73; 36,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,72; 32,44</t>
+          <t>26,16; 32,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,99; 38,49</t>
+          <t>31,55; 38,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 39,66</t>
+          <t>14,95; 39,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,7; 32,57</t>
+          <t>27,47; 32,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,57; 30,45</t>
+          <t>25,63; 30,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,71; 35,51</t>
+          <t>30,51; 35,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,69; 35,83</t>
+          <t>19,64; 35,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 27,63</t>
+          <t>21,96; 27,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,08; 29,07</t>
+          <t>23,09; 29,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 31,82</t>
+          <t>25,52; 32,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,93; 32,57</t>
+          <t>26,0; 32,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,63; 33,38</t>
+          <t>27,97; 34,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,22; 34,81</t>
+          <t>28,93; 34,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,29; 36,08</t>
+          <t>30,33; 36,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,16; 36,26</t>
+          <t>26,16; 36,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 29,84</t>
+          <t>25,76; 29,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,99; 31,34</t>
+          <t>27,03; 31,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 33,19</t>
+          <t>28,91; 33,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,39; 33,32</t>
+          <t>26,99; 33,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,42; 26,53</t>
+          <t>23,24; 26,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,19; 26,29</t>
+          <t>23,17; 26,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,66; 30,61</t>
+          <t>27,33; 30,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,36; 27,7</t>
+          <t>18,92; 27,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,83; 33,03</t>
+          <t>29,8; 32,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,65; 31,85</t>
+          <t>28,85; 32,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,94; 36,2</t>
+          <t>32,89; 36,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 32,79</t>
+          <t>24,2; 32,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,15; 29,25</t>
+          <t>27,03; 29,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,45; 28,67</t>
+          <t>26,49; 28,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,69; 33,0</t>
+          <t>30,55; 32,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,77</t>
+          <t>24,28; 29,69</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 6 meses han ido al dentista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>157655</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>155776</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>192600</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>143302</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>213595</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>205730</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>232263</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>197393</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>371250</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>361506</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>424863</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>340695</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>135355; 182395</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>134285; 176928</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>169433; 217101</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>121479; 170899</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>192098; 238205</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>181723; 230500</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>207036; 254953</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>178620; 218945</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>339510; 406561</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>330869; 395532</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>391416; 456678</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>308946; 372505</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>239087</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>241165</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>288930</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>229713</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>304293</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>311245</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>372549</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>263841</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>543380</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>552410</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>661479</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>493554</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>214253; 267705</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>212598; 271091</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>258971; 319807</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>125554; 300925</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>275711; 337371</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>282464; 345862</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>338930; 403250</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>240642; 288716</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>502517; 586132</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>510520; 595649</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>617722; 708165</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>326505; 571336</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>186137</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>200655</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>236347</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>224665</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>222351</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>227518</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>274348</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>268809</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>408488</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>428172</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>510696</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>493474</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>164171; 209806</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>177067; 228681</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>211263; 266236</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>197306; 255426</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>196449; 246751</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>203336; 255186</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>247693; 299408</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>138411; 364811</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>374246; 442293</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>393344; 465793</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>471213; 547244</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>320149; 584068</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>232039</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>247001</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>268471</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>265032</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>318757</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>334364</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>345010</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>354190</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>550796</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>581365</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>613480</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>619223</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>206731; 257358</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>218821; 274952</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>239247; 300205</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>237497; 296714</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>290458; 353136</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>304014; 365290</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>316604; 376236</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>281963; 390591</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>509991; 588553</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>540250; 621748</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>572789; 656800</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>537525; 666471</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2087</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2410</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>814918</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>844597</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>986348</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>862713</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1058996</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1078857</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1224171</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1084234</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1873914</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1923453</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2210518</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1946946</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>761136; 862782</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>793371; 893185</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>927665; 1038411</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>650025; 952093</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1006886; 1110122</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1026159; 1139075</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1165881; 1279347</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>878391; 1189142</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1798612; 1942870</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1849388; 2002245</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2120052; 2285927</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1715635; 2097718</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>